--- a/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,53</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 7,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 22,73</t>
+          <t>1,0; 22,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,19; 9,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,81</t>
+          <t>4,09; 9,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,4; 8,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,28</t>
+          <t>4,36; 13,5</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>17,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>11,52</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 23,65</t>
+          <t>8,82; 23,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,5</t>
+          <t>8,34; 13,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,03</t>
+          <t>9,08; 14,16</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,58</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>12,73</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 21,14</t>
+          <t>10,16; 21,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,88</t>
+          <t>8,54; 14,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,94</t>
+          <t>10,21; 16,0</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>9,3</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 6,67</t>
+          <t>4,98; 6,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,86</t>
+          <t>4,03; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 8,94</t>
+          <t>7,49; 8,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 13,16</t>
+          <t>9,08; 13,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,92</t>
+          <t>6,72; 7,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,42</t>
+          <t>7,76; 11,37</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,88</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,35</t>
+          <t>2,65; 4,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,55</t>
+          <t>3,24; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,52</t>
+          <t>3,22; 4,56</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>11,97</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,99</t>
+          <t>10,22; 15,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 14,05</t>
+          <t>10,5; 14,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,72; 13,7</t>
+          <t>10,73; 13,8</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,49</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>18,01</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 23,92</t>
+          <t>13,77; 23,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 23,16</t>
+          <t>10,0; 23,01</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,73</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,34; 4,16</t>
+          <t>3,36; 4,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,76</t>
+          <t>4,94; 5,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 5,05</t>
+          <t>4,43; 5,05</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>6,95</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,58</t>
+          <t>5,05; 6,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,89; 8,04</t>
+          <t>7,05; 8,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,29</t>
+          <t>6,44; 7,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo dedicado de lunes a viernes al cuidado de las personas del hogar que lo necesitan por parte de la persona entrevistada</t>
+          <t>Número medio de horas diarias, de lunes a viernes, que dedica la persona entrevistada a cuidar a las personas del hogar que lo necesitan</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,9</t>
+          <t>1,81; 3,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,62</t>
+          <t>5,79; 7,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,42</t>
+          <t>5,56; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,27</t>
+          <t>2,83; 4,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 9,54</t>
+          <t>8,1; 9,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 12,46</t>
+          <t>10,11; 12,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,8</t>
+          <t>4,05; 9,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,72</t>
+          <t>2,58; 3,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,5</t>
+          <t>7,43; 8,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,41</t>
+          <t>8,43; 10,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 13,5</t>
+          <t>4,4; 14,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,31</t>
+          <t>5,01; 7,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,43</t>
+          <t>6,27; 7,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 12,67</t>
+          <t>9,18; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 23,64</t>
+          <t>8,21; 23,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 9,32</t>
+          <t>7,67; 9,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,57</t>
+          <t>7,47; 8,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 13,52</t>
+          <t>10,86; 13,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,48</t>
+          <t>8,49; 13,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,32</t>
+          <t>6,98; 8,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,98</t>
+          <t>7,14; 7,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 12,84</t>
+          <t>10,7; 12,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,16</t>
+          <t>9,05; 14,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,02</t>
+          <t>1,44; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,64</t>
+          <t>2,5; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,78</t>
+          <t>7,24; 9,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 21,17</t>
+          <t>10,33; 20,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 4,71</t>
+          <t>3,1; 4,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,31</t>
+          <t>4,16; 5,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 12,76</t>
+          <t>9,39; 12,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,87</t>
+          <t>8,56; 15,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,56</t>
+          <t>2,52; 3,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 4,43</t>
+          <t>3,6; 4,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,99</t>
+          <t>8,7; 10,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,0</t>
+          <t>9,98; 16,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,16</t>
+          <t>1,49; 2,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 6,46</t>
+          <t>4,96; 6,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,75</t>
+          <t>4,94; 7,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,87</t>
+          <t>4,07; 6,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,06</t>
+          <t>3,41; 5,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,92</t>
+          <t>7,46; 8,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,1</t>
+          <t>7,07; 9,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,23</t>
+          <t>9,26; 13,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,76</t>
+          <t>2,65; 3,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,76</t>
+          <t>6,72; 7,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,24</t>
+          <t>6,63; 8,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,37</t>
+          <t>7,95; 11,9</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,64</t>
+          <t>4,21; 7,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,79</t>
+          <t>4,06; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,58</t>
+          <t>2,8; 3,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,34</t>
+          <t>2,69; 4,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,09</t>
+          <t>6,72; 10,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 6,92</t>
+          <t>5,4; 6,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 4,73</t>
+          <t>4,07; 4,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,59</t>
+          <t>3,22; 5,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,51</t>
+          <t>6,17; 8,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,25</t>
+          <t>4,97; 6,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,07</t>
+          <t>3,55; 4,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,56</t>
+          <t>3,18; 4,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,17</t>
+          <t>1,5; 2,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,79</t>
+          <t>2,0; 2,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,26</t>
+          <t>5,19; 7,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,0</t>
+          <t>10,21; 14,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,33</t>
+          <t>4,11; 6,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,01</t>
+          <t>3,9; 5,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,98</t>
+          <t>7,3; 10,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,23</t>
+          <t>10,37; 14,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,83</t>
+          <t>2,99; 4,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,99</t>
+          <t>3,18; 4,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,37</t>
+          <t>6,51; 8,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,8</t>
+          <t>10,69; 13,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,18</t>
+          <t>2,46; 3,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,32</t>
+          <t>2,62; 3,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,61</t>
+          <t>7,61; 10,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,42 +1584,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,33</t>
+          <t>3,94; 5,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,16</t>
+          <t>4,39; 5,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 12,34</t>
+          <t>10,22; 12,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,92</t>
+          <t>13,37; 23,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,66</t>
+          <t>3,58; 4,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 4,25</t>
+          <t>3,72; 4,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 11,19</t>
+          <t>9,46; 11,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 23,01</t>
+          <t>10,99; 23,0</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,11</t>
+          <t>5,13; 6,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,23</t>
+          <t>5,16; 6,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,64; 4,17</t>
+          <t>3,64; 4,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,18</t>
+          <t>3,33; 4,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,68; 9,53</t>
+          <t>7,73; 9,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 7,63</t>
+          <t>6,76; 7,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 5,82</t>
+          <t>5,07; 5,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 5,76</t>
+          <t>4,98; 5,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,9; 8,18</t>
+          <t>6,88; 8,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,32; 6,97</t>
+          <t>6,3; 7,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,55; 5,13</t>
+          <t>4,56; 5,09</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 5,05</t>
+          <t>4,42; 5,06</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,01</t>
+          <t>3,34; 4,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 4,96</t>
+          <t>4,51; 4,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 6,68</t>
+          <t>5,88; 6,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,88</t>
+          <t>5,07; 6,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,17</t>
+          <t>5,5; 6,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,83</t>
+          <t>6,4; 6,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,14; 8,88</t>
+          <t>8,09; 8,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,05; 8,23</t>
+          <t>7,06; 8,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 5,26</t>
+          <t>4,71; 5,24</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,03</t>
+          <t>5,7; 6,02</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,88</t>
+          <t>7,3; 7,85</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 7,49</t>
+          <t>6,44; 7,52</t>
         </is>
       </c>
     </row>
